--- a/pred_ohlcv/54_21/2019-11-02 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 TRV ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>40632.12461980109</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>64787.04801980109</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>77834.62341980109</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>77846.62341980109</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-94191.5142801989</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-93013.5287801989</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-104707.4838485592</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-104729.4838485592</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-104718.4838485592</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-87572.77034855919</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-86739.77034855919</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-87087.5893485592</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-78337.72004855919</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-75790.98444855919</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-136414.9691485592</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-193000.1564485592</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-213551.9842485592</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-213551.9842485592</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-206331.9843485592</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-206331.9843485592</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-228945.7235485592</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-357749.6932485592</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-355132.2909485592</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-354785.0740485592</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-391201.0971485592</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-279598.0996485592</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-279617.3507485592</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-3032485.681658205</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3148708.815634675</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3281026.110434675</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3354542.852093599</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3366776.371793599</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3366775.505393599</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3405491.476193598</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3404542.429793599</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3390814.575093599</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3389531.468393599</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3374742.714248938</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3381343.391248938</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3387219.387648938</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3381143.344048938</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3416491.008648938</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3437810.288948939</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3436943.579948939</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3468091.683548939</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3451762.673867871</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3431301.823970784</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3420735.069327095</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3474422.46870525</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3545698.09080525</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3711849.49410525</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3716798.99620525</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3885969.29280525</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3880388.50390525</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3880180.50270525</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3884818.659705251</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3880848.659705251</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-4079623.483405251</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3880577.98790525</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-3925448.46170525</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4000813.05680525</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3991716.20550525</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3999092.52640525</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3996585.98710525</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3953536.72300525</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3875665.472915789</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 TRV ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>40632.12461980109</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>64787.04801980109</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>77834.62341980109</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>77846.62341980109</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-94191.5142801989</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-93013.5287801989</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-102252.1467801989</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-109391.2653801989</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-104707.4838485592</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-104729.4838485592</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-104718.4838485592</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-74979.44684855919</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-87572.77034855919</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-86739.77034855919</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-87087.5893485592</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-75808.8721485592</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-78337.72004855919</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-136414.9691485592</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-132694.9965485592</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-202940.4265485592</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-195795.9620485592</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-195630.5082485592</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-183561.9528485592</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-213551.9842485592</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-206285.8483485592</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-228945.7235485592</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-357749.6932485592</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-355132.2909485592</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-354785.0740485592</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-354628.2786485592</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-346663.0414485592</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-349862.3830485592</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-339357.3369485592</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-279598.0996485592</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-279617.3507485592</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-219985.0180300407</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-256347.1029300407</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3128949.752518989</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3180603.374618989</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3180458.374618989</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3148708.815634675</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3147689.922534675</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3291713.496034675</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3258766.079734675</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3282397.213634675</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3282397.213634675</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3281132.749634675</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3281060.110434675</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3281070.110434675</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3281026.110434675</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3301838.481834675</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3307721.896393599</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3354542.852093599</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3366833.492593599</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3366776.371793599</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3366775.505393599</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3405491.476193598</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3404542.429793599</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3390814.575093599</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3389531.468393599</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3374742.714248938</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3381343.391248938</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3387219.387648938</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3381143.344048938</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3415713.703448938</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3415505.790848938</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3416501.469748938</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3416491.008648938</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3425364.862848938</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3378205.777648938</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3387549.041548938</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3437810.288948939</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3436943.579948939</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3468091.683548939</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3479281.718848939</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3451762.673867871</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3451962.673867871</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3453285.301767871</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3431301.823970784</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3403939.775648939</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3403751.41754894</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3424205.49484894</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3424205.49484894</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3433698.316427095</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3420735.069327095</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3437442.258027095</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3449071.630727095</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3474432.46870525</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3474422.46870525</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3544862.61010525</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3545698.09080525</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-3679563.50100525</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3711874.96850525</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3711849.49410525</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3716798.99620525</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3770493.23220525</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3885969.29280525</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3880388.50390525</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3880180.50270525</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3884818.659705251</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3880848.659705251</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-4079623.483405251</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-4061520.39610525</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3880577.98790525</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-3925448.46170525</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-4000813.05680525</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3991716.20550525</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-3999092.52640525</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-3990104.25450525</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-3996585.98710525</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-3953536.72300525</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-3875665.472915789</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
